--- a/objectmodeldefinition.xlsx
+++ b/objectmodeldefinition.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/stuff/objectmodeldiagramgenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4665C718-8D15-5B42-AD89-7170AF9CDE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F539454A-7DDB-7140-8BC8-2D2DBB8A0237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{EA4244F2-FE33-7643-A566-43DD5B4E5092}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="2" xr2:uid="{EA4244F2-FE33-7643-A566-43DD5B4E5092}"/>
   </bookViews>
   <sheets>
     <sheet name="businessevents" sheetId="1" r:id="rId1"/>
-    <sheet name="objectmodels_current-state" sheetId="2" r:id="rId2"/>
-    <sheet name="doc_entities-and-attribute" sheetId="3" r:id="rId3"/>
-    <sheet name="doc_conventions" sheetId="4" r:id="rId4"/>
+    <sheet name="objectmodels_current-state1" sheetId="2" r:id="rId2"/>
+    <sheet name="objectmodels_current-state2" sheetId="5" r:id="rId3"/>
+    <sheet name="doc_entities-and-attribute" sheetId="3" r:id="rId4"/>
+    <sheet name="doc_conventions" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="260">
   <si>
     <t>ID</t>
   </si>
@@ -1171,7 +1172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1254,6 +1255,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1296,13 +1313,12 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1371,6 +1387,56 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1681,10 +1747,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{422A6A28-4F84-CA4D-BC76-24F29CBA51D2}" name="Tabelle1" displayName="Tabelle1" ref="A1:D20" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E843E1F4-E64E-684F-A053-BC1EBA87FC3D}" name="ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{AD27EB56-E6EA-1B48-8FF5-F0DBDD95396F}" name="Name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{3568C30F-FCC2-614D-B4C9-3748BE4A945B}" name="ScenarioID_fk" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D0CB45EB-CC49-FE43-98FA-E06ED3CEE884}" name="Spalte1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E843E1F4-E64E-684F-A053-BC1EBA87FC3D}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{AD27EB56-E6EA-1B48-8FF5-F0DBDD95396F}" name="Name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{3568C30F-FCC2-614D-B4C9-3748BE4A945B}" name="ScenarioID_fk" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D0CB45EB-CC49-FE43-98FA-E06ED3CEE884}" name="Spalte1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2268,6 +2334,6712 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774F00B6-A59F-D145-8FE6-374C061F9E9E}">
   <dimension ref="A1:AZ45"/>
   <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="AI25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AU45" sqref="AU45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" style="16" customWidth="1"/>
+    <col min="2" max="8" width="9" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="16" customWidth="1"/>
+    <col min="10" max="14" width="9.33203125" style="16" customWidth="1"/>
+    <col min="15" max="19" width="10.1640625" style="16" customWidth="1"/>
+    <col min="20" max="22" width="10.83203125" style="16"/>
+    <col min="23" max="24" width="3.83203125" style="16" customWidth="1"/>
+    <col min="25" max="30" width="9.1640625" style="16" customWidth="1"/>
+    <col min="31" max="38" width="8.6640625" style="16" customWidth="1"/>
+    <col min="39" max="43" width="10" style="16" customWidth="1"/>
+    <col min="44" max="47" width="9.33203125" style="16" customWidth="1"/>
+    <col min="48" max="48" width="10.83203125" style="16"/>
+    <col min="49" max="49" width="10.83203125" style="16" customWidth="1"/>
+    <col min="50" max="51" width="10.83203125" style="16"/>
+    <col min="52" max="52" width="10.83203125" style="16" customWidth="1"/>
+    <col min="53" max="16384" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+    </row>
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="48"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+    </row>
+    <row r="3" spans="1:52" s="13" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL3" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ5" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="U6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z6" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB6" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC6" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD6" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ6" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ7" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE8" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF8" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG8" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH8" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI8" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL8" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM8" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN8" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO8" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ8" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR9" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT9" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU9" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ9" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV10" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX10" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY10" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ10" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV11" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW11" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX11" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY11" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ11" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ12" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="W13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z13" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA13" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB13" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC13" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD13" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ13" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ15" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE16" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF16" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG16" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH16" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI16" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK16" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL16" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM16" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN16" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO16" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP16" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ16" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ16" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="V17" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR17" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS17" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT17" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU17" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ17" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV18" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW18" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX18" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY18" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ18" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="W19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV19" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW19" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX19" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY19" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ19" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ20" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ21" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="V22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="W22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="X22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y22" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z22" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA22" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB22" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC22" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD22" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ22" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" s="36" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="U23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="V23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="W23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="X23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE23" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF23" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG23" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH23" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI23" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ23" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL23" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ23" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ24" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="V25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="W25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="X25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y25" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z25" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA25" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB25" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC25" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD25" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ25" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ26" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM27" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN27" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO27" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP27" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ27" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ27" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ28" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="T29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="V29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="W29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="X29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM29" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN29" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO29" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP29" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ29" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ29" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="T30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ30" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="O31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ31" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY32" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ32" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y33" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z33" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA33" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD33" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ33" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE34" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF34" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG34" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH34" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI34" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ34" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK34" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL34" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ34" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="T35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="V35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="W35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="X35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE35" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF35" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG35" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH35" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI35" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ35" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK35" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL35" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ35" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="S36" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="T36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ36" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="X37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM37" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN37" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO37" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP37" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ37" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ37" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T38" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="U38" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="V38" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="W38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ38" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T39" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="V39" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="W39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ39" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="U40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="V40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="W40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ40" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR40" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS40" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT40" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU40" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV40" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW40" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX40" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY40" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ40" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="U41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="V41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="W41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV41" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW41" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX41" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY41" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ41" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="U42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="V42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="W42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV42" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW42" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX42" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY42" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ42" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A43" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="U43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="V43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="W43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR43" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS43" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT43" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU43" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV43" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW43" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX43" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY43" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ43" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="U44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="V44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="W44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV44" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW44" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX44" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY44" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ44" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A45" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="U45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="V45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="W45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV45" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW45" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX45" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY45" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ45" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="Y1:AZ1"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="AE2:AL2"/>
+    <mergeCell ref="J2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A6:I6 A5:X5 T32:X34 Y32:AL36 A29:N35 A39:AQ44 AR39:AZ40 AV41:AZ42 AR41:AU43 A45:AU45 Y5:XFD6 T29:AZ31 BA29:XFD43 AM32:AZ34 T35:AZ35 A36:AZ38 AR44:AZ44 AV44:XFD45 A46:XFD1048576 A7:XFD28">
+    <cfRule type="containsBlanks" dxfId="12" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:I6 B5:X5 T32:X34 Y32:AL36 B29:N35 B39:AQ44 AR39:AZ40 AV41:AZ42 AR41:AU43 B45:AU45 Y5:XFD6 T29:AZ31 BA29:XFD43 AM32:AZ34 T35:AZ35 B36:AZ38 AR44:AZ44 AV44:XFD45 B46:XFD1048576 B7:XFD28">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="notEqual">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV43:AZ43">
+    <cfRule type="containsBlanks" dxfId="10" priority="1" stopIfTrue="1">
+      <formula>LEN(TRIM(AV43))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV43:AZ43">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="notEqual">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46:A50" xr:uid="{4A842348-822B-094B-B09C-79C5BC5E3916}">
+      <formula1>BEVT_IDs</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D1575FA-AD3B-B848-9B4C-D0F3A4B189BC}">
+          <x14:formula1>
+            <xm:f>businessevents!$A$2:$A$97</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5:A45</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1E4987-6A96-C648-9F9B-A27E5954D481}">
+  <dimension ref="A1:AZ45"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="AI25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -2296,143 +9068,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="47" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="41" t="s">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="41" t="s">
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="48"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="43" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="43" t="s">
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="43" t="s">
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="43" t="s">
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
@@ -2457,43 +9229,43 @@
       <c r="I3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="42" t="s">
         <v>63</v>
       </c>
       <c r="W3" s="5" t="s">
@@ -2520,37 +9292,37 @@
       <c r="AD3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AG3" s="39" t="s">
         <v>90</v>
       </c>
       <c r="AH3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AJ3" s="39" t="s">
         <v>163</v>
       </c>
       <c r="AK3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AM3" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AN3" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO3" s="39" t="s">
         <v>89</v>
       </c>
       <c r="AP3" s="12" t="s">
@@ -2559,7 +9331,7 @@
       <c r="AQ3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AR3" s="38" t="s">
         <v>124</v>
       </c>
       <c r="AS3" s="12" t="s">
@@ -2571,19 +9343,19 @@
       <c r="AU3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AV3" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW3" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX3" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="AZ3" s="39" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4012,7 +10784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:52" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:52" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>10</v>
@@ -8913,28 +15685,27 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="Y1:AZ1"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="Y1:AZ1"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="B1:X1"/>
-    <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="AE2:AL2"/>
-    <mergeCell ref="J2:N2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A6:I6 A5:X5 T32:X34 Y32:AL36 A29:N35 A39:AQ44 AR39:AZ40 AV41:AZ42 AR41:AU43 A45:AU45 Y5:XFD6 T29:AZ31 BA29:XFD43 AM32:AZ34 T35:AZ35 A36:AZ38 AR44:AZ44 AV44:XFD45 A46:XFD1048576 A7:XFD28">
+  <conditionalFormatting sqref="A6:I6 A5:X5 A29:N35 A39:AQ44 AR39:AZ40 AV41:AZ42 AR41:AU43 Y5:XFD6 T29:AZ31 T32:X35 Y32:AZ38 A36:X38 AR44:AZ44 A45:AZ45 BA29:XFD45 A46:XFD1048576 A7:XFD28">
     <cfRule type="containsBlanks" dxfId="3" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I6 B5:X5 T32:X34 Y32:AL36 B29:N35 B39:AQ44 AR39:AZ40 AV41:AZ42 AR41:AU43 B45:AU45 Y5:XFD6 T29:AZ31 BA29:XFD43 AM32:AZ34 T35:AZ35 B36:AZ38 AR44:AZ44 AV44:XFD45 B46:XFD1048576 B7:XFD28">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="notEqual">
+  <conditionalFormatting sqref="B6:I6 B5:X5 B29:N35 B39:AQ44 AR39:AZ40 AV41:AZ42 AR41:AU43 Y5:XFD6 T29:AZ31 T32:X35 Y32:AZ38 B36:X38 AR44:AZ44 B45:AZ45 BA29:XFD45 B46:XFD1048576 B7:XFD28">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8949,16 +15720,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46:A50" xr:uid="{4A842348-822B-094B-B09C-79C5BC5E3916}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46:A50" xr:uid="{1797E1E1-A0C8-C24D-8A32-A8AAD6E2E2F2}">
       <formula1>BEVT_IDs</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D1575FA-AD3B-B848-9B4C-D0F3A4B189BC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FB7A561-D006-8D46-A521-80AE3189D76B}">
           <x14:formula1>
             <xm:f>businessevents!$A$2:$A$97</xm:f>
           </x14:formula1>
@@ -8970,7 +15740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF36908E-7B0D-AC4C-AAB6-F6FFCB9AE073}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -9313,7 +16083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957B1B1D-C2EE-9B4D-B3FF-AD115CBB19B4}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -9503,12 +16273,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9670,15 +16437,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44EA3924-C60D-4AB3-8333-F249729C0DDD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2124C44-2049-4194-ADAF-B2DF55B36692}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe6e65e6-3f48-4872-a1e7-e48555659f5f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9702,17 +16480,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2124C44-2049-4194-ADAF-B2DF55B36692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44EA3924-C60D-4AB3-8333-F249729C0DDD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe6e65e6-3f48-4872-a1e7-e48555659f5f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/objectmodeldefinition.xlsx
+++ b/objectmodeldefinition.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ing.sharepoint.com/sites/OnePAMAlignment2-TribeDLundTribeService/Gedeelde documenten/Tribe DL und Tribe Service/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/stuff/objectmodeldiagramgenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2311" documentId="13_ncr:1_{7BF11AB0-0BC4-0843-B525-243E9490D16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E398A2E6-333B-634F-AE4B-BEE51D4C16B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E879543-787A-AF41-A327-E24EEC52C152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" activeTab="1" xr2:uid="{EA4244F2-FE33-7643-A566-43DD5B4E5092}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{EA4244F2-FE33-7643-A566-43DD5B4E5092}"/>
   </bookViews>
   <sheets>
     <sheet name="businessevents" sheetId="1" r:id="rId1"/>
-    <sheet name="objectmodels_kupfer_currysstate" sheetId="2" r:id="rId2"/>
-    <sheet name="objectmodels_kupfer_targystate" sheetId="8" r:id="rId3"/>
-    <sheet name="objectmodels_jodler_currystate" sheetId="9" r:id="rId4"/>
-    <sheet name="objectmodels_jodler_targystate" sheetId="10" r:id="rId5"/>
+    <sheet name="oms_Kupfer_CurrentState" sheetId="2" r:id="rId2"/>
+    <sheet name="oms_Kupfer_TargetState" sheetId="8" r:id="rId3"/>
+    <sheet name="oms_Jodler_CurrentState" sheetId="9" r:id="rId4"/>
+    <sheet name="oms_Jodler_TargetState" sheetId="10" r:id="rId5"/>
     <sheet name="doc_entities-and-attribute" sheetId="3" r:id="rId6"/>
     <sheet name="doc_conventions" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10936" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10938" uniqueCount="373">
   <si>
     <t>ID</t>
   </si>
@@ -841,12 +839,6 @@
   </si>
   <si>
     <t>pave0004</t>
-  </si>
-  <si>
-    <t>Kunigunde Kaiser erteilt eine Vollmacht für ihre Einzelkonten an Kerstin Kupfer. Im selben Atemzug gilt "Kerstin Kupfer erhält eine Vollmacht von Kunigunde Kaiser".</t>
-  </si>
-  <si>
-    <t>Klaus Kupfer erteilt eine Vollmacht für seine Einzelkonten an Katrin Kupfer. Im selben Atemzug gilt "Katrin Kupfer erhält eine Vollmacht von Klaus Kupfer".</t>
   </si>
   <si>
     <t>We assume the situation that both parents are first connected via a Gemeinschaftspartner, and only then there is the connection between Kevin and the Gemeinschaftspartner.
@@ -1156,6 +1148,18 @@
   </si>
   <si>
     <t>partnernummer-b_fk</t>
+  </si>
+  <si>
+    <t>Klaus Kupfer erteilt eine Vollmacht für seine Einzelkonten an Katrin Kupfer.</t>
+  </si>
+  <si>
+    <t>Im selben Atemzug gilt "Katrin Kupfer erhält eine Vollmacht von Klaus Kupfer".</t>
+  </si>
+  <si>
+    <t>Kunigunde Kaiser erteilt eine Vollmacht für ihre Einzelkonten an Kerstin Kupfer.</t>
+  </si>
+  <si>
+    <t>Im selben Atemzug gilt "Kerstin Kupfer erhält eine Vollmacht von Kunigunde Kaiser".</t>
   </si>
 </sst>
 </file>
@@ -1603,6 +1607,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1648,57 +1697,31 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1848,25 +1871,6 @@
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2045,19 +2049,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4839BD3-5D73-734A-B902-529B029081C5}" name="Tabelle2" displayName="Tabelle2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4839BD3-5D73-734A-B902-529B029081C5}" name="Tabelle2" displayName="Tabelle2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C17" xr:uid="{C4839BD3-5D73-734A-B902-529B029081C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CD4C934D-C638-6641-9429-0635496C9CA8}" name="Convention" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{49EAB0E3-F001-BB4E-9093-217E47E4FDA4}" name="Description" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2C6C41A4-B550-2949-BD2B-0FF7B652198B}" name="Reasoning" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{CD4C934D-C638-6641-9429-0635496C9CA8}" name="Convention" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{49EAB0E3-F001-BB4E-9093-217E47E4FDA4}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2C6C41A4-B550-2949-BD2B-0FF7B652198B}" name="Reasoning" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2355,9 +2359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A31B61-90E3-1849-BB99-1A270DFBF588}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2377,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>249</v>
@@ -2443,17 +2447,19 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -2478,7 +2484,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2577,159 +2583,161 @@
       </c>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>267</v>
+        <v>371</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="27" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B19" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>301</v>
-      </c>
       <c r="D19" s="27" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C22" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>302</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D29" s="29"/>
     </row>
@@ -2746,11 +2754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774F00B6-A59F-D145-8FE6-374C061F9E9E}">
   <dimension ref="A1:BB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="AO4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2780,304 +2788,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="42" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
     </row>
     <row r="2" spans="1:54" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="47" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="36" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="36" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="36" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="36" t="s">
+      <c r="W2" s="52"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="38" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="38" t="s">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="38" t="s">
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="38" t="s">
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="38" t="s">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
     </row>
-    <row r="3" spans="1:54" s="62" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="1:54" s="47" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="54" t="s">
+      <c r="K3" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="O3" s="54" t="s">
+      <c r="M3" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="Z3" s="50" t="s">
+      <c r="Z3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" s="56" t="s">
+      <c r="AA3" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="AB3" s="57" t="s">
+      <c r="AB3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="57" t="s">
+      <c r="AD3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="57" t="s">
+      <c r="AE3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="58" t="s">
+      <c r="AF3" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="59" t="s">
+      <c r="AG3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AH3" s="60" t="s">
+      <c r="AH3" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AI3" s="60" t="s">
+      <c r="AI3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AJ3" s="57" t="s">
+      <c r="AJ3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AK3" s="60" t="s">
+      <c r="AK3" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="AL3" s="60" t="s">
+      <c r="AL3" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="AM3" s="61" t="s">
+      <c r="AM3" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="AN3" s="60" t="s">
+      <c r="AN3" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="AO3" s="59" t="s">
+      <c r="AO3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AP3" s="60" t="s">
+      <c r="AP3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AQ3" s="60" t="s">
+      <c r="AQ3" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="61" t="s">
+      <c r="AR3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="AS3" s="61" t="s">
+      <c r="AS3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="AT3" s="59" t="s">
+      <c r="AT3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AU3" s="61" t="s">
+      <c r="AU3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="AV3" s="61" t="s">
+      <c r="AV3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="61" t="s">
+      <c r="AW3" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AX3" s="59" t="s">
+      <c r="AX3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AY3" s="60" t="s">
+      <c r="AY3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3" s="60" t="s">
+      <c r="AZ3" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="BA3" s="60" t="s">
+      <c r="BA3" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="BB3" s="60" t="s">
+      <c r="BB3" s="45" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3277,7 +3285,7 @@
         <v>89</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>94</v>
@@ -3443,49 +3451,49 @@
       <c r="K6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z6" s="48" t="s">
+      <c r="L6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="33" t="s">
         <v>94</v>
       </c>
       <c r="AA6" s="19" t="s">
@@ -4589,7 +4597,7 @@
         <v>118</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>94</v>
@@ -5901,7 +5909,7 @@
         <v>129</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>94</v>
@@ -6458,28 +6466,28 @@
       <c r="AF24" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AG24" s="48" t="s">
+      <c r="AG24" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="AH24" s="48" t="s">
+      <c r="AH24" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="AI24" s="48" t="s">
+      <c r="AI24" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AJ24" s="48" t="s">
+      <c r="AJ24" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="AK24" s="48" t="s">
+      <c r="AK24" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AL24" s="48" t="s">
+      <c r="AL24" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="AM24" s="48" t="s">
+      <c r="AM24" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AN24" s="48" t="s">
+      <c r="AN24" s="33" t="s">
         <v>159</v>
       </c>
       <c r="AO24" s="19" t="s">
@@ -6721,7 +6729,7 @@
         <v>160</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L26" s="19" t="s">
         <v>94</v>
@@ -7022,7 +7030,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>178</v>
@@ -7207,13 +7215,13 @@
         <v>94</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J29" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>94</v>
@@ -7380,10 +7388,10 @@
         <v>94</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N30" s="19" t="s">
         <v>89</v>
@@ -7544,10 +7552,10 @@
         <v>94</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N31" s="19" t="s">
         <v>118</v>
@@ -7753,7 +7761,7 @@
         <v>94</v>
       </c>
       <c r="AA32" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB32" s="19" t="s">
         <v>178</v>
@@ -7768,7 +7776,7 @@
         <v>94</v>
       </c>
       <c r="AF32" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG32" s="19" t="s">
         <v>94</v>
@@ -7935,19 +7943,19 @@
         <v>94</v>
       </c>
       <c r="AG33" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH33" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH33" s="33" t="s">
         <v>152</v>
       </c>
       <c r="AI33" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="AJ33" s="48" t="s">
+      <c r="AJ33" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK33" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL33" s="19" t="s">
         <v>190</v>
@@ -8099,19 +8107,19 @@
         <v>94</v>
       </c>
       <c r="AG34" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH34" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH34" s="33" t="s">
         <v>152</v>
       </c>
       <c r="AI34" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="AJ34" s="48" t="s">
+      <c r="AJ34" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK34" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL34" s="19" t="s">
         <v>190</v>
@@ -8200,19 +8208,19 @@
         <v>94</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>160</v>
       </c>
       <c r="N35" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="P35" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="P35" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="Q35" s="19" t="s">
         <v>94</v>
@@ -8427,28 +8435,28 @@
         <v>94</v>
       </c>
       <c r="AG36" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH36" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI36" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="AH36" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI36" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ36" s="48" t="s">
+      <c r="AJ36" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK36" s="19" t="s">
         <v>164</v>
       </c>
       <c r="AL36" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM36" s="19" t="s">
         <v>95</v>
       </c>
       <c r="AN36" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO36" s="19" t="s">
         <v>94</v>
@@ -8591,28 +8599,28 @@
         <v>94</v>
       </c>
       <c r="AG37" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH37" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH37" s="33" t="s">
         <v>152</v>
       </c>
       <c r="AI37" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ37" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ37" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK37" s="19" t="s">
         <v>164</v>
       </c>
       <c r="AL37" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM37" s="19" t="s">
         <v>121</v>
       </c>
       <c r="AN37" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO37" s="19" t="s">
         <v>94</v>
@@ -9050,7 +9058,7 @@
         <v>94</v>
       </c>
       <c r="V40" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="W40" s="19" t="s">
         <v>89</v>
@@ -9214,7 +9222,7 @@
         <v>94</v>
       </c>
       <c r="V41" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="W41" s="19" t="s">
         <v>118</v>
@@ -9450,7 +9458,7 @@
         <v>94</v>
       </c>
       <c r="AT42" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AU42" s="19" t="s">
         <v>112</v>
@@ -9459,7 +9467,7 @@
         <v>95</v>
       </c>
       <c r="AW42" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX42" s="19" t="s">
         <v>94</v>
@@ -9614,7 +9622,7 @@
         <v>94</v>
       </c>
       <c r="AT43" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AU43" s="19" t="s">
         <v>112</v>
@@ -9623,7 +9631,7 @@
         <v>121</v>
       </c>
       <c r="AW43" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AX43" s="19" t="s">
         <v>94</v>
@@ -9790,7 +9798,7 @@
         <v>94</v>
       </c>
       <c r="AX44" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AY44" s="19" t="s">
         <v>114</v>
@@ -9799,10 +9807,10 @@
         <v>95</v>
       </c>
       <c r="BA44" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BB44" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9954,7 +9962,7 @@
         <v>94</v>
       </c>
       <c r="AX45" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AY45" s="19" t="s">
         <v>116</v>
@@ -9963,10 +9971,10 @@
         <v>95</v>
       </c>
       <c r="BA45" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BB45" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10118,7 +10126,7 @@
         <v>94</v>
       </c>
       <c r="AX46" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AY46" s="19" t="s">
         <v>114</v>
@@ -10127,10 +10135,10 @@
         <v>121</v>
       </c>
       <c r="BA46" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB46" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10282,7 +10290,7 @@
         <v>94</v>
       </c>
       <c r="AX47" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AY47" s="19" t="s">
         <v>116</v>
@@ -10291,10 +10299,10 @@
         <v>121</v>
       </c>
       <c r="BA47" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB47" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10821,7 +10829,7 @@
         <v>177</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L51" s="19" t="s">
         <v>94</v>
@@ -11545,13 +11553,13 @@
       <c r="AG55" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="AH55" s="48" t="s">
+      <c r="AH55" s="33" t="s">
         <v>152</v>
       </c>
       <c r="AI55" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="AJ55" s="48" t="s">
+      <c r="AJ55" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK55" s="19" t="s">
@@ -11709,13 +11717,13 @@
       <c r="AG56" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="AH56" s="48" t="s">
+      <c r="AH56" s="33" t="s">
         <v>152</v>
       </c>
       <c r="AI56" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="AJ56" s="48" t="s">
+      <c r="AJ56" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK56" s="19" t="s">
@@ -13937,7 +13945,7 @@
         <v>252</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L70" s="19" t="s">
         <v>94</v>
@@ -15806,28 +15814,28 @@
       <c r="AF81" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AG81" s="48" t="s">
+      <c r="AG81" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="AH81" s="48" t="s">
+      <c r="AH81" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="AI81" s="48" t="s">
+      <c r="AI81" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AJ81" s="48" t="s">
+      <c r="AJ81" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="AK81" s="48" t="s">
+      <c r="AK81" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="AL81" s="48" t="s">
+      <c r="AL81" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="AM81" s="48" t="s">
+      <c r="AM81" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AN81" s="48" t="s">
+      <c r="AN81" s="33" t="s">
         <v>159</v>
       </c>
       <c r="AO81" s="19" t="s">
@@ -15892,22 +15900,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="V53:Z55 AO53:XFD55 AA53:AN57 V56:XFD56 AT60:BB61 BC58:XFD64 AX62:BB63 AT62:AW64 AT65:XFD65 BC66:XFD71 AX65:BB67 A82:XFD1048576 K72:XFD81 K66:AW67 K60:AS65 K58:BB59 K57:XFD57 V49:XFD50 K48:XFD48 K5:K6 K7:XFD11 K49:P49 K52:P56 A48:J49 K68:BB68 A5:J11 A51:J68 A70:J81 AA6:XFD6 L4:XFD5 V52:XFD52 K51:XFD51 K70:BB71 A4:K4 A12:XFD47 A50:P50 A69:BB69">
-    <cfRule type="containsBlanks" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:Z55 AO53:XFD55 AA53:AN57 V56:XFD56 AT60:BB61 BC58:XFD64 AX62:BB63 AT62:AW64 AT65:XFD65 BC66:XFD71 AX65:BB67 B82:XFD1048576 K72:XFD81 K66:AW67 K60:AS65 K58:BB59 K57:XFD57 V49:XFD50 K48:XFD48 K5:K6 K7:XFD11 K49:P49 K52:P56 B48:J49 K68:BB68 B5:J11 B51:J68 B70:J81 AA6:XFD6 L4:XFD5 V52:XFD52 K51:XFD51 K70:BB71 B4:K4 B12:XFD47 B50:P50 B69:BB69">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX64:BB64">
-    <cfRule type="containsBlanks" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="14" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(AX64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX64:BB64">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15932,10 +15940,10 @@
   <dimension ref="A1:BB73"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:N3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15965,147 +15973,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="42" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
     </row>
     <row r="2" spans="1:54" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="47" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="36" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="36" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="36" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="36" t="s">
+      <c r="W2" s="52"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="38" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="38" t="s">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="38" t="s">
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="38" t="s">
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="38" t="s">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
     </row>
     <row r="3" spans="1:54" s="8" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
@@ -16134,16 +16142,16 @@
         <v>60</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>370</v>
+      <c r="M3" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>368</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>141</v>
@@ -16462,7 +16470,7 @@
         <v>89</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>94</v>
@@ -16628,49 +16636,49 @@
       <c r="K6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z6" s="48" t="s">
+      <c r="L6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="33" t="s">
         <v>94</v>
       </c>
       <c r="AA6" s="19" t="s">
@@ -17774,7 +17782,7 @@
         <v>118</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>94</v>
@@ -19086,7 +19094,7 @@
         <v>129</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>94</v>
@@ -19643,28 +19651,28 @@
       <c r="AF24" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AG24" s="48" t="s">
+      <c r="AG24" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="AH24" s="48" t="s">
+      <c r="AH24" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="AI24" s="48" t="s">
+      <c r="AI24" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AJ24" s="48" t="s">
+      <c r="AJ24" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="AK24" s="48" t="s">
+      <c r="AK24" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AL24" s="48" t="s">
+      <c r="AL24" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="AM24" s="48" t="s">
+      <c r="AM24" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AN24" s="48" t="s">
+      <c r="AN24" s="33" t="s">
         <v>159</v>
       </c>
       <c r="AO24" s="19" t="s">
@@ -19906,7 +19914,7 @@
         <v>160</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L26" s="19" t="s">
         <v>94</v>
@@ -20207,7 +20215,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>178</v>
@@ -20392,13 +20400,13 @@
         <v>94</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J29" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>94</v>
@@ -20565,10 +20573,10 @@
         <v>94</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N30" s="19" t="s">
         <v>89</v>
@@ -20729,10 +20737,10 @@
         <v>94</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N31" s="19" t="s">
         <v>118</v>
@@ -20893,19 +20901,19 @@
         <v>94</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M32" s="19" t="s">
         <v>160</v>
       </c>
       <c r="N32" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="P32" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="O32" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="Q32" s="19" t="s">
         <v>94</v>
@@ -21120,28 +21128,28 @@
         <v>94</v>
       </c>
       <c r="AG33" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH33" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI33" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="AH33" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI33" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ33" s="48" t="s">
+      <c r="AJ33" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK33" s="19" t="s">
         <v>164</v>
       </c>
       <c r="AL33" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM33" s="19" t="s">
         <v>95</v>
       </c>
       <c r="AN33" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO33" s="19" t="s">
         <v>94</v>
@@ -21284,28 +21292,28 @@
         <v>94</v>
       </c>
       <c r="AG34" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH34" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH34" s="33" t="s">
         <v>152</v>
       </c>
       <c r="AI34" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ34" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ34" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK34" s="19" t="s">
         <v>164</v>
       </c>
       <c r="AL34" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM34" s="19" t="s">
         <v>121</v>
       </c>
       <c r="AN34" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO34" s="19" t="s">
         <v>94</v>
@@ -21743,7 +21751,7 @@
         <v>94</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="W37" s="19" t="s">
         <v>89</v>
@@ -21907,7 +21915,7 @@
         <v>94</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="W38" s="19" t="s">
         <v>118</v>
@@ -22143,7 +22151,7 @@
         <v>94</v>
       </c>
       <c r="AT39" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AU39" s="19" t="s">
         <v>112</v>
@@ -22152,7 +22160,7 @@
         <v>95</v>
       </c>
       <c r="AW39" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX39" s="19" t="s">
         <v>94</v>
@@ -22307,7 +22315,7 @@
         <v>94</v>
       </c>
       <c r="AT40" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AU40" s="19" t="s">
         <v>112</v>
@@ -22316,7 +22324,7 @@
         <v>121</v>
       </c>
       <c r="AW40" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AX40" s="19" t="s">
         <v>94</v>
@@ -22483,7 +22491,7 @@
         <v>94</v>
       </c>
       <c r="AX41" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AY41" s="19" t="s">
         <v>114</v>
@@ -22492,10 +22500,10 @@
         <v>95</v>
       </c>
       <c r="BA41" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BB41" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -22647,7 +22655,7 @@
         <v>94</v>
       </c>
       <c r="AX42" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AY42" s="19" t="s">
         <v>116</v>
@@ -22656,10 +22664,10 @@
         <v>95</v>
       </c>
       <c r="BA42" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BB42" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -22811,7 +22819,7 @@
         <v>94</v>
       </c>
       <c r="AX43" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AY43" s="19" t="s">
         <v>114</v>
@@ -22820,10 +22828,10 @@
         <v>121</v>
       </c>
       <c r="BA43" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB43" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -22975,7 +22983,7 @@
         <v>94</v>
       </c>
       <c r="AX44" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AY44" s="19" t="s">
         <v>116</v>
@@ -22984,10 +22992,10 @@
         <v>121</v>
       </c>
       <c r="BA44" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB44" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -23514,7 +23522,7 @@
         <v>177</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L48" s="19" t="s">
         <v>94</v>
@@ -24269,7 +24277,7 @@
         <v>185</v>
       </c>
       <c r="AR52" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AS52" s="19" t="s">
         <v>110</v>
@@ -25581,7 +25589,7 @@
         <v>250</v>
       </c>
       <c r="AR60" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AS60" s="19" t="s">
         <v>110</v>
@@ -25810,7 +25818,7 @@
         <v>252</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L62" s="19" t="s">
         <v>94</v>
@@ -27679,28 +27687,28 @@
       <c r="AF73" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AG73" s="48" t="s">
+      <c r="AG73" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="AH73" s="48" t="s">
+      <c r="AH73" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="AI73" s="48" t="s">
+      <c r="AI73" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AJ73" s="48" t="s">
+      <c r="AJ73" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="AK73" s="48" t="s">
+      <c r="AK73" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="AL73" s="48" t="s">
+      <c r="AL73" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="AM73" s="48" t="s">
+      <c r="AM73" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AN73" s="48" t="s">
+      <c r="AN73" s="33" t="s">
         <v>159</v>
       </c>
       <c r="AO73" s="19" t="s">
@@ -27765,12 +27773,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="V50:Z50 K52:BB53 K51:Z51 K6 K45:XFD45 AT54:BB56 AT57:XFD57 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 K46:P46 A45:J46 A47:P47 K48:P50 BC52:XFD56 K54:AS57 A7:XFD44 V46:XFD49 AA50:XFD51 K58:XFD60 A48:J60 A61:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V50:Z50 K52:BB53 K51:Z51 K6 K45:XFD45 AT54:BB56 AT57:XFD57 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 K46:P46 B45:J46 B47:P47 K48:P50 BC52:XFD56 K54:AS57 B7:XFD44 V46:XFD49 AA50:XFD51 K58:XFD60 B48:J60 B61:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27795,10 +27803,10 @@
   <dimension ref="A1:BB26"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:N3"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27828,316 +27836,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="42" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
     </row>
     <row r="2" spans="1:54" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="47" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="36" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="36" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="36" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="36" t="s">
+      <c r="W2" s="52"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="38" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="38" t="s">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="38" t="s">
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="38" t="s">
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="38" t="s">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
     </row>
-    <row r="3" spans="1:54" s="62" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="1:54" s="47" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="54" t="s">
+      <c r="K3" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="O3" s="54" t="s">
+      <c r="M3" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="Z3" s="50" t="s">
+      <c r="Z3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" s="56" t="s">
+      <c r="AA3" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="AB3" s="57" t="s">
+      <c r="AB3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="57" t="s">
+      <c r="AD3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="57" t="s">
+      <c r="AE3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="58" t="s">
+      <c r="AF3" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="59" t="s">
+      <c r="AG3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AH3" s="60" t="s">
+      <c r="AH3" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AI3" s="60" t="s">
+      <c r="AI3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AJ3" s="57" t="s">
+      <c r="AJ3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AK3" s="60" t="s">
+      <c r="AK3" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="AL3" s="60" t="s">
+      <c r="AL3" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="AM3" s="61" t="s">
+      <c r="AM3" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="AN3" s="60" t="s">
+      <c r="AN3" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="AO3" s="59" t="s">
+      <c r="AO3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AP3" s="60" t="s">
+      <c r="AP3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AQ3" s="60" t="s">
+      <c r="AQ3" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="61" t="s">
+      <c r="AR3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="AS3" s="61" t="s">
+      <c r="AS3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="AT3" s="59" t="s">
+      <c r="AT3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AU3" s="61" t="s">
+      <c r="AU3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="AV3" s="61" t="s">
+      <c r="AV3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="61" t="s">
+      <c r="AW3" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AX3" s="59" t="s">
+      <c r="AX3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AY3" s="60" t="s">
+      <c r="AY3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3" s="60" t="s">
+      <c r="AZ3" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="BA3" s="60" t="s">
+      <c r="BA3" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="BB3" s="60" t="s">
+      <c r="BB3" s="45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>91</v>
@@ -28295,7 +28303,7 @@
     </row>
     <row r="5" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>94</v>
@@ -28319,13 +28327,13 @@
         <v>94</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>94</v>
@@ -28459,7 +28467,7 @@
     </row>
     <row r="6" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>94</v>
@@ -28491,56 +28499,56 @@
       <c r="K6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z6" s="48" t="s">
+      <c r="L6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="33" t="s">
         <v>94</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AC6" s="19" t="s">
         <v>96</v>
@@ -28552,7 +28560,7 @@
         <v>98</v>
       </c>
       <c r="AF6" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG6" s="19" t="s">
         <v>94</v>
@@ -28623,13 +28631,13 @@
     </row>
     <row r="7" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>91</v>
@@ -28787,7 +28795,7 @@
     </row>
     <row r="8" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>94</v>
@@ -28811,13 +28819,13 @@
         <v>94</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>94</v>
@@ -28951,7 +28959,7 @@
     </row>
     <row r="9" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>94</v>
@@ -29029,10 +29037,10 @@
         <v>94</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AC9" s="19" t="s">
         <v>96</v>
@@ -29044,7 +29052,7 @@
         <v>98</v>
       </c>
       <c r="AF9" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG9" s="19" t="s">
         <v>94</v>
@@ -29115,13 +29123,13 @@
     </row>
     <row r="10" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>179</v>
@@ -29279,7 +29287,7 @@
     </row>
     <row r="11" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>94</v>
@@ -29303,13 +29311,13 @@
         <v>94</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>94</v>
@@ -29443,7 +29451,7 @@
     </row>
     <row r="12" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>94</v>
@@ -29476,13 +29484,13 @@
         <v>94</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>181</v>
@@ -29607,7 +29615,7 @@
     </row>
     <row r="13" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>94</v>
@@ -29640,13 +29648,13 @@
         <v>94</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>181</v>
@@ -29771,7 +29779,7 @@
     </row>
     <row r="14" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>94</v>
@@ -29849,10 +29857,10 @@
         <v>94</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AC14" s="19" t="s">
         <v>187</v>
@@ -29864,7 +29872,7 @@
         <v>94</v>
       </c>
       <c r="AF14" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG14" s="19" t="s">
         <v>94</v>
@@ -29935,7 +29943,7 @@
     </row>
     <row r="15" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>94</v>
@@ -30031,25 +30039,25 @@
         <v>94</v>
       </c>
       <c r="AG15" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="AH15" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH15" s="33" t="s">
         <v>152</v>
       </c>
       <c r="AI15" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="AJ15" s="48" t="s">
+      <c r="AJ15" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AL15" s="19" t="s">
         <v>190</v>
       </c>
       <c r="AM15" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AN15" s="19" t="s">
         <v>191</v>
@@ -30099,7 +30107,7 @@
     </row>
     <row r="16" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>94</v>
@@ -30195,25 +30203,25 @@
         <v>94</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="AH16" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH16" s="33" t="s">
         <v>152</v>
       </c>
       <c r="AI16" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="AJ16" s="48" t="s">
+      <c r="AJ16" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AL16" s="19" t="s">
         <v>190</v>
       </c>
       <c r="AM16" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AN16" s="19" t="s">
         <v>191</v>
@@ -30263,7 +30271,7 @@
     </row>
     <row r="17" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>94</v>
@@ -30311,10 +30319,10 @@
         <v>94</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S17" s="19" t="s">
         <v>101</v>
@@ -30323,7 +30331,7 @@
         <v>102</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="V17" s="19" t="s">
         <v>94</v>
@@ -30427,7 +30435,7 @@
     </row>
     <row r="18" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>94</v>
@@ -30547,16 +30555,16 @@
         <v>94</v>
       </c>
       <c r="AO18" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="AP18" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ18" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="AR18" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="AP18" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="AQ18" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="AR18" s="19" t="s">
-        <v>359</v>
       </c>
       <c r="AS18" s="19" t="s">
         <v>110</v>
@@ -30591,7 +30599,7 @@
     </row>
     <row r="19" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>94</v>
@@ -30654,13 +30662,13 @@
         <v>94</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="W19" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>94</v>
@@ -30755,7 +30763,7 @@
     </row>
     <row r="20" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>94</v>
@@ -30818,13 +30826,13 @@
         <v>94</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="W20" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X20" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Y20" s="19" t="s">
         <v>94</v>
@@ -30919,7 +30927,7 @@
     </row>
     <row r="21" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>94</v>
@@ -31054,16 +31062,16 @@
         <v>94</v>
       </c>
       <c r="AT21" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AU21" s="19" t="s">
         <v>195</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AW21" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AX21" s="19" t="s">
         <v>94</v>
@@ -31083,7 +31091,7 @@
     </row>
     <row r="22" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>94</v>
@@ -31230,24 +31238,24 @@
         <v>94</v>
       </c>
       <c r="AX22" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AY22" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AZ22" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BA22" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="BB22" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>94</v>
@@ -31394,24 +31402,24 @@
         <v>94</v>
       </c>
       <c r="AX23" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AY23" s="19" t="s">
         <v>116</v>
       </c>
       <c r="AZ23" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BA23" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="BB23" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>94</v>
@@ -31546,16 +31554,16 @@
         <v>94</v>
       </c>
       <c r="AT24" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AU24" s="19" t="s">
         <v>195</v>
       </c>
       <c r="AV24" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AW24" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AX24" s="19" t="s">
         <v>94</v>
@@ -31575,7 +31583,7 @@
     </row>
     <row r="25" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>94</v>
@@ -31722,24 +31730,24 @@
         <v>94</v>
       </c>
       <c r="AX25" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AY25" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AZ25" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="BA25" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="BB25" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>94</v>
@@ -31886,19 +31894,19 @@
         <v>94</v>
       </c>
       <c r="AX26" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AY26" s="19" t="s">
         <v>116</v>
       </c>
       <c r="AZ26" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="BA26" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="BB26" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -31920,12 +31928,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K6 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 A7:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="10" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 B7:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31950,10 +31958,10 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:N3"/>
+      <selection pane="bottomRight" activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31983,316 +31991,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="42" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
     </row>
     <row r="2" spans="1:54" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="47" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="36" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="36" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="36" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="36" t="s">
+      <c r="W2" s="52"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="38" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="38" t="s">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="38" t="s">
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="38" t="s">
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="38" t="s">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
     </row>
-    <row r="3" spans="1:54" s="62" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="1:54" s="47" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="54" t="s">
+      <c r="K3" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="O3" s="54" t="s">
+      <c r="M3" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="Z3" s="50" t="s">
+      <c r="Z3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" s="56" t="s">
+      <c r="AA3" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="AB3" s="57" t="s">
+      <c r="AB3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="57" t="s">
+      <c r="AD3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="57" t="s">
+      <c r="AE3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="58" t="s">
+      <c r="AF3" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="59" t="s">
+      <c r="AG3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AH3" s="60" t="s">
+      <c r="AH3" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AI3" s="60" t="s">
+      <c r="AI3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AJ3" s="57" t="s">
+      <c r="AJ3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AK3" s="60" t="s">
+      <c r="AK3" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="AL3" s="60" t="s">
+      <c r="AL3" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="AM3" s="61" t="s">
+      <c r="AM3" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="AN3" s="60" t="s">
+      <c r="AN3" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="AO3" s="59" t="s">
+      <c r="AO3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AP3" s="60" t="s">
+      <c r="AP3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AQ3" s="60" t="s">
+      <c r="AQ3" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="61" t="s">
+      <c r="AR3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="AS3" s="61" t="s">
+      <c r="AS3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="AT3" s="59" t="s">
+      <c r="AT3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AU3" s="61" t="s">
+      <c r="AU3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="AV3" s="61" t="s">
+      <c r="AV3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="61" t="s">
+      <c r="AW3" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AX3" s="59" t="s">
+      <c r="AX3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AY3" s="60" t="s">
+      <c r="AY3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3" s="60" t="s">
+      <c r="AZ3" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="BA3" s="60" t="s">
+      <c r="BA3" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="BB3" s="60" t="s">
+      <c r="BB3" s="45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>91</v>
@@ -32450,7 +32458,7 @@
     </row>
     <row r="5" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>94</v>
@@ -32474,13 +32482,13 @@
         <v>94</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>94</v>
@@ -32614,7 +32622,7 @@
     </row>
     <row r="6" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>94</v>
@@ -32646,56 +32654,56 @@
       <c r="K6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z6" s="48" t="s">
+      <c r="L6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="33" t="s">
         <v>94</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AC6" s="19" t="s">
         <v>96</v>
@@ -32707,7 +32715,7 @@
         <v>98</v>
       </c>
       <c r="AF6" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG6" s="19" t="s">
         <v>94</v>
@@ -32778,13 +32786,13 @@
     </row>
     <row r="7" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>91</v>
@@ -32942,7 +32950,7 @@
     </row>
     <row r="8" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>94</v>
@@ -32966,13 +32974,13 @@
         <v>94</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>94</v>
@@ -33106,7 +33114,7 @@
     </row>
     <row r="9" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>94</v>
@@ -33184,10 +33192,10 @@
         <v>94</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AC9" s="19" t="s">
         <v>96</v>
@@ -33199,7 +33207,7 @@
         <v>98</v>
       </c>
       <c r="AF9" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG9" s="19" t="s">
         <v>94</v>
@@ -33270,10 +33278,10 @@
     </row>
     <row r="10" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>178</v>
@@ -33434,7 +33442,7 @@
     </row>
     <row r="11" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>94</v>
@@ -33458,13 +33466,13 @@
         <v>94</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>94</v>
@@ -33598,7 +33606,7 @@
     </row>
     <row r="12" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>94</v>
@@ -33631,13 +33639,13 @@
         <v>94</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>181</v>
@@ -33762,7 +33770,7 @@
     </row>
     <row r="13" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>94</v>
@@ -33795,13 +33803,13 @@
         <v>94</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>181</v>
@@ -33926,7 +33934,7 @@
     </row>
     <row r="14" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>94</v>
@@ -34022,7 +34030,7 @@
         <v>94</v>
       </c>
       <c r="AG14" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AH14" s="19" t="s">
         <v>151</v>
@@ -34040,7 +34048,7 @@
         <v>94</v>
       </c>
       <c r="AM14" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AN14" s="19" t="s">
         <v>157</v>
@@ -34090,7 +34098,7 @@
     </row>
     <row r="15" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>94</v>
@@ -34186,7 +34194,7 @@
         <v>94</v>
       </c>
       <c r="AG15" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AH15" s="19" t="s">
         <v>151</v>
@@ -34204,7 +34212,7 @@
         <v>94</v>
       </c>
       <c r="AM15" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AN15" s="19" t="s">
         <v>157</v>
@@ -34254,7 +34262,7 @@
     </row>
     <row r="16" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>94</v>
@@ -34302,10 +34310,10 @@
         <v>94</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S16" s="19" t="s">
         <v>101</v>
@@ -34314,7 +34322,7 @@
         <v>102</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="V16" s="19" t="s">
         <v>94</v>
@@ -34418,7 +34426,7 @@
     </row>
     <row r="17" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>94</v>
@@ -34538,16 +34546,16 @@
         <v>94</v>
       </c>
       <c r="AO17" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AP17" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AQ17" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AR17" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AS17" s="19" t="s">
         <v>110</v>
@@ -34582,7 +34590,7 @@
     </row>
     <row r="18" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>94</v>
@@ -34645,13 +34653,13 @@
         <v>94</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="W18" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Y18" s="19" t="s">
         <v>94</v>
@@ -34746,7 +34754,7 @@
     </row>
     <row r="19" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>94</v>
@@ -34809,13 +34817,13 @@
         <v>94</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="W19" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>94</v>
@@ -34910,7 +34918,7 @@
     </row>
     <row r="20" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>94</v>
@@ -35045,16 +35053,16 @@
         <v>94</v>
       </c>
       <c r="AT20" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AU20" s="19" t="s">
         <v>112</v>
       </c>
       <c r="AV20" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AW20" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AX20" s="19" t="s">
         <v>94</v>
@@ -35074,7 +35082,7 @@
     </row>
     <row r="21" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>94</v>
@@ -35221,24 +35229,24 @@
         <v>94</v>
       </c>
       <c r="AX21" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AY21" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AZ21" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BA21" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="BB21" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>94</v>
@@ -35385,24 +35393,24 @@
         <v>94</v>
       </c>
       <c r="AX22" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AY22" s="19" t="s">
         <v>116</v>
       </c>
       <c r="AZ22" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BA22" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="BB22" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>94</v>
@@ -35537,16 +35545,16 @@
         <v>94</v>
       </c>
       <c r="AT23" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AU23" s="19" t="s">
         <v>112</v>
       </c>
       <c r="AV23" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AW23" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AX23" s="19" t="s">
         <v>94</v>
@@ -35566,7 +35574,7 @@
     </row>
     <row r="24" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>94</v>
@@ -35713,24 +35721,24 @@
         <v>94</v>
       </c>
       <c r="AX24" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AY24" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AZ24" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="BA24" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="BB24" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:54" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>94</v>
@@ -35877,19 +35885,19 @@
         <v>94</v>
       </c>
       <c r="AX25" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AY25" s="19" t="s">
         <v>116</v>
       </c>
       <c r="AZ25" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="BA25" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="BB25" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -35911,22 +35919,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:AG15 AO14:XFD15 A16:XFD1048576 A5:K6 A4:XFD4 AA6:XFD6 L5:XFD5 A7:XFD13">
-    <cfRule type="containsBlanks" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:AG15 AO14:XFD15 B16:XFD1048576 B5:K6 B4:XFD4 AA6:XFD6 L5:XFD5 B7:XFD13">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AN15">
-    <cfRule type="containsBlanks" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(AH14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AN15">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36099,7 +36107,7 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -36110,10 +36118,10 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -36239,7 +36247,7 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -36349,10 +36357,10 @@
         <v>205</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -36360,10 +36368,10 @@
         <v>208</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -36371,7 +36379,7 @@
         <v>209</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>207</v>
@@ -36500,7 +36508,7 @@
     </row>
     <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>236</v>
@@ -36511,7 +36519,7 @@
     </row>
     <row r="17" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>248</v>
@@ -36530,6 +36538,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010077FCAD843BF44A4BABBF8E8FD9F5DAA3" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c6015d074abc3fd8e64f9ef5e21f7cdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6e65e6-3f48-4872-a1e7-e48555659f5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02d2ef7fa4d856fff055a3790f8a6335" ns2:_="">
     <xsd:import namespace="fe6e65e6-3f48-4872-a1e7-e48555659f5f"/>
@@ -36687,15 +36704,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -36703,6 +36711,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44EA3924-C60D-4AB3-8333-F249729C0DDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68AFDC7A-BC94-4FC6-8B85-475B5C992486}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36716,14 +36732,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44EA3924-C60D-4AB3-8333-F249729C0DDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/objectmodeldefinition.xlsx
+++ b/objectmodeldefinition.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/stuff/objectmodeldiagramgenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46B95A7-A239-3C4D-B926-918D21C07E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72CEBEA-5C28-C245-82B1-6C703C127F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{EA4244F2-FE33-7643-A566-43DD5B4E5092}"/>
   </bookViews>
   <sheets>
     <sheet name="transitionstates" sheetId="19" r:id="rId1"/>
-    <sheet name="scenarios" sheetId="18" r:id="rId2"/>
+    <sheet name="scenarios" sheetId="22" r:id="rId2"/>
     <sheet name="businessevents" sheetId="1" r:id="rId3"/>
     <sheet name="oms_Kupfer_state1" sheetId="2" r:id="rId4"/>
     <sheet name="oms_Kupfer_state2" sheetId="8" r:id="rId5"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18962" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18966" uniqueCount="481">
   <si>
     <t>bevt0001</t>
   </si>
@@ -1539,6 +1539,18 @@
   <si>
     <t>Target state once we have implemented OnePAM Alignment.</t>
   </si>
+  <si>
+    <t>MleJodler</t>
+  </si>
+  <si>
+    <t>Martin creates some objects which refer to data in a different sheet and scenario</t>
+  </si>
+  <si>
+    <t>Just a test.</t>
+  </si>
+  <si>
+    <t>mevt0101</t>
+  </si>
 </sst>
 </file>
 
@@ -1637,7 +1649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1901,12 +1913,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2098,31 +2123,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="65">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -2799,6 +2808,25 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -3289,20 +3317,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{146E6FAE-5442-4148-B80A-2AE103296F59}" name="Table3" displayName="Table3" ref="A1:C16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5159AD54-BF1D-D441-A45C-D65DA1CD0986}" name="Table36" displayName="Table36" ref="A1:C16" totalsRowShown="0">
   <autoFilter ref="A1:C16" xr:uid="{C0682A79-088A-6444-B944-088363065AF9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6776E720-FE66-4844-AC38-BD2B4F4FAFDE}" name="Key"/>
-    <tableColumn id="2" xr3:uid="{2A705AD5-40F2-D04F-B082-89A54DD6A28D}" name="PredecessorKeys"/>
-    <tableColumn id="3" xr3:uid="{F33D7D8A-0FD8-5144-BF8B-087065860438}" name="Description"/>
+    <tableColumn id="1" xr3:uid="{16B28E7B-04EE-454F-B84C-48849BB5EB18}" name="Key"/>
+    <tableColumn id="2" xr3:uid="{0CA1CD4D-CC6D-AA46-8083-165CA3A6DEE4}" name="PredecessorKeys"/>
+    <tableColumn id="3" xr3:uid="{ACE976C0-1958-EC48-A565-E2EF6F1094C0}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{422A6A28-4F84-CA4D-BC76-24F29CBA51D2}" name="Tabelle1" displayName="Tabelle1" ref="A1:D59" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
-  <autoFilter ref="A1:D59" xr:uid="{422A6A28-4F84-CA4D-BC76-24F29CBA51D2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{422A6A28-4F84-CA4D-BC76-24F29CBA51D2}" name="Tabelle1" displayName="Tabelle1" ref="A1:D62" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A1:D62" xr:uid="{422A6A28-4F84-CA4D-BC76-24F29CBA51D2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E843E1F4-E64E-684F-A053-BC1EBA87FC3D}" name="Key" dataDxfId="62"/>
     <tableColumn id="2" xr3:uid="{AD27EB56-E6EA-1B48-8FF5-F0DBDD95396F}" name="Description" dataDxfId="61"/>
@@ -3314,12 +3342,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4839BD3-5D73-734A-B902-529B029081C5}" name="Tabelle2" displayName="Tabelle2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4839BD3-5D73-734A-B902-529B029081C5}" name="Tabelle2" displayName="Tabelle2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:C17" xr:uid="{C4839BD3-5D73-734A-B902-529B029081C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CD4C934D-C638-6641-9429-0635496C9CA8}" name="Convention" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{49EAB0E3-F001-BB4E-9093-217E47E4FDA4}" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{2C6C41A4-B550-2949-BD2B-0FF7B652198B}" name="Reasoning" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CD4C934D-C638-6641-9429-0635496C9CA8}" name="Convention" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{49EAB0E3-F001-BB4E-9093-217E47E4FDA4}" name="Description" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{2C6C41A4-B550-2949-BD2B-0FF7B652198B}" name="Reasoning" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7663,72 +7691,72 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K6 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 A7:XFD10 AI11 A11:AG11 AL11:XFD11 AI18 AL18:XFD18 A18:AG18 A12:XFD17 A19:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="38" priority="15" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="33" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 B7:XFD10 AI11 B11:AG11 AL11:XFD11 AI18 AL18:XFD18 B18:AG18 B12:XFD17 B19:XFD1048576">
-    <cfRule type="cellIs" dxfId="37" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AN13">
-    <cfRule type="containsBlanks" dxfId="36" priority="13" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="31" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(AG13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AN13">
-    <cfRule type="cellIs" dxfId="35" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11">
-    <cfRule type="containsBlanks" dxfId="34" priority="9" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="29" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(AH11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11">
-    <cfRule type="containsBlanks" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="27" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(AJ11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18">
-    <cfRule type="containsBlanks" dxfId="30" priority="5" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="25" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(AH18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ18">
-    <cfRule type="containsBlanks" dxfId="28" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="23" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(AJ18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ18">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20:AN20">
-    <cfRule type="containsBlanks" dxfId="26" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="21" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(AG20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20:AN20">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11713,72 +11741,72 @@
     <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <conditionalFormatting sqref="K6 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 A7:XFD10 AI11 A11:AG11 AL11:XFD11 AI18 AL18:XFD18 A18:AG18 A12:XFD17 A19:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="24" priority="13" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="19" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 B7:XFD10 AI11 B11:AG11 AL11:XFD11 AI18 AL18:XFD18 B18:AG18 B12:XFD17 B19:XFD1048576">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AN13">
-    <cfRule type="containsBlanks" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="11" stopIfTrue="1">
       <formula>LEN(TRIM(AG13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AN13">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11">
-    <cfRule type="containsBlanks" dxfId="20" priority="9" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="15" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(AH11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11">
-    <cfRule type="containsBlanks" dxfId="18" priority="7" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(AJ11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18">
-    <cfRule type="containsBlanks" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(AH18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ18">
-    <cfRule type="containsBlanks" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(AJ18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ18">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20:AN20">
-    <cfRule type="containsBlanks" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(AG20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20:AN20">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15863,12 +15891,12 @@
     <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <conditionalFormatting sqref="K6 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 A7:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 B7:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19952,12 +19980,12 @@
     <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <conditionalFormatting sqref="K6 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 A7:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 B7:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24038,12 +24066,12 @@
     <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <conditionalFormatting sqref="K6 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 A7:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 B7:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24648,11 +24676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC60F03-B787-8248-9395-1B994E21141A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751DC78E-EA1F-F444-AA26-59A357346CDF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24848,11 +24876,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A31B61-90E3-1849-BB99-1A270DFBF588}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25529,6 +25557,32 @@
       </c>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -25544,10 +25598,10 @@
   <dimension ref="A1:BB81"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38689,22 +38743,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="V53:Z55 AO53:XFD55 AA53:AN57 V56:XFD56 AT60:BB61 BC58:XFD64 AX62:BB63 AT62:AW64 AT65:XFD65 BC66:XFD71 AX65:BB67 K72:XFD81 K66:AW67 K60:AS65 K58:BB59 K57:XFD57 V49:XFD50 K48:XFD48 K5:K6 K7:XFD11 K49:P49 K52:P56 A48:J49 K68:BB68 A5:J11 A51:J68 A70:J81 AA6:XFD6 L4:XFD5 V52:XFD52 K51:XFD51 K70:BB71 A4:K4 A50:P50 A69:BB69 A82:XFD1048576 A12:XFD47">
-    <cfRule type="containsBlanks" dxfId="58" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="53" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53:Z55 AO53:XFD55 AA53:AN57 V56:XFD56 AT60:BB61 BC58:XFD64 AX62:BB63 AT62:AW64 AT65:XFD65 BC66:XFD71 AX65:BB67 B82:XFD1048576 K72:XFD81 K66:AW67 K60:AS65 K58:BB59 K57:XFD57 V49:XFD50 K48:XFD48 K5:K6 K7:XFD11 K49:P49 K52:P56 B48:J49 K68:BB68 B5:J11 B51:J68 B70:J81 AA6:XFD6 L4:XFD5 V52:XFD52 K51:XFD51 K70:BB71 B4:K4 B12:XFD47 B50:P50 B69:BB69">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX64:BB64">
-    <cfRule type="containsBlanks" dxfId="56" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="51" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(AX64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX64:BB64">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38729,10 +38783,10 @@
   <dimension ref="A1:BB73"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50562,12 +50616,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="V50:Z50 K52:BB53 K51:Z51 K6 K45:XFD45 AT54:BB56 AT57:XFD57 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 K46:P46 A45:J46 A47:P47 K48:P50 BC52:XFD56 K54:AS57 A7:XFD44 V46:XFD49 AA50:XFD51 K58:XFD60 A48:J60 A61:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="54" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="49" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V50:Z50 K52:BB53 K51:Z51 K6 K45:XFD45 AT54:BB56 AT57:XFD57 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 K46:P46 B45:J46 B47:P47 K48:P50 BC52:XFD56 K54:AS57 B7:XFD44 V46:XFD49 AA50:XFD51 K58:XFD60 B48:J60 B61:XFD1048576">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54717,12 +54771,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K6 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 A7:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="52" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="47" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 B7:XFD1048576">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58708,22 +58762,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:AG15 AO14:XFD15 A16:XFD1048576 A5:K6 A4:XFD4 AA6:XFD6 L5:XFD5 A7:XFD13">
-    <cfRule type="containsBlanks" dxfId="50" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="45" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:AG15 AO14:XFD15 B16:XFD1048576 B5:K6 B4:XFD4 AA6:XFD6 L5:XFD5 B7:XFD13">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AN15">
-    <cfRule type="containsBlanks" dxfId="48" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="43" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(AH14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AN15">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61233,22 +61287,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K6 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 A7:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="46" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="41" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 B7:XFD1048576">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AN12">
-    <cfRule type="containsBlanks" dxfId="44" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="39" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(AG12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AN12">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61273,7 +61327,7 @@
   <dimension ref="A1:BB16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AU15" sqref="AU15"/>
@@ -63757,22 +63811,22 @@
     <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <conditionalFormatting sqref="K6 A4:XFD4 AA6:XFD6 K5:XFD5 A5:J6 A7:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="42" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="37" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 B4:XFD4 AA6:XFD6 K5:XFD5 B5:J6 B7:XFD1048576">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AN12">
-    <cfRule type="containsBlanks" dxfId="40" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="35" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(AG12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AN12">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63803,12 +63857,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010077FCAD843BF44A4BABBF8E8FD9F5DAA3" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c6015d074abc3fd8e64f9ef5e21f7cdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6e65e6-3f48-4872-a1e7-e48555659f5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02d2ef7fa4d856fff055a3790f8a6335" ns2:_="">
     <xsd:import namespace="fe6e65e6-3f48-4872-a1e7-e48555659f5f"/>
@@ -63966,6 +64014,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44EA3924-C60D-4AB3-8333-F249729C0DDD}">
   <ds:schemaRefs>
@@ -63975,22 +64029,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2124C44-2049-4194-ADAF-B2DF55B36692}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fe6e65e6-3f48-4872-a1e7-e48555659f5f"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{548EC3FD-DB51-454E-B2A6-D1DD66121FF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64006,4 +64044,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2124C44-2049-4194-ADAF-B2DF55B36692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fe6e65e6-3f48-4872-a1e7-e48555659f5f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/objectmodeldefinition.xlsx
+++ b/objectmodeldefinition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/stuff/objectmodeldiagramgenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4CE694-DDDE-0B46-A3C8-443982985669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3754354-7D66-0146-934F-D93804478727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="3" xr2:uid="{EA4244F2-FE33-7643-A566-43DD5B4E5092}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="2" xr2:uid="{EA4244F2-FE33-7643-A566-43DD5B4E5092}"/>
   </bookViews>
   <sheets>
     <sheet name="transitionstates" sheetId="19" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19348" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19380" uniqueCount="493">
   <si>
     <t>bevt0001</t>
   </si>
@@ -1540,18 +1540,6 @@
     <t>Target state once we have implemented OnePAM Alignment.</t>
   </si>
   <si>
-    <t>MleJodler</t>
-  </si>
-  <si>
-    <t>Martin creates some objects which refer to data in a different sheet and scenario</t>
-  </si>
-  <si>
-    <t>Just a test.</t>
-  </si>
-  <si>
-    <t>mevt0101</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -1562,6 +1550,42 @@
   </si>
   <si>
     <t>delete</t>
+  </si>
+  <si>
+    <t>bevt0602</t>
+  </si>
+  <si>
+    <t>bevt0603</t>
+  </si>
+  <si>
+    <t>bevt0604</t>
+  </si>
+  <si>
+    <t>bevt0605</t>
+  </si>
+  <si>
+    <t>bevt0802</t>
+  </si>
+  <si>
+    <t>bevt0803</t>
+  </si>
+  <si>
+    <t>bevt0804</t>
+  </si>
+  <si>
+    <t>bevt0902</t>
+  </si>
+  <si>
+    <t>bevt0903</t>
+  </si>
+  <si>
+    <t>bevt0904</t>
+  </si>
+  <si>
+    <t>bevt0905</t>
+  </si>
+  <si>
+    <t>bevt0906</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1926,19 +1950,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1956,7 +1967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2103,17 +2114,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2151,24 +2159,24 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="75">
     <dxf>
       <fill>
         <patternFill>
@@ -2257,202 +2265,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2699,6 +2511,181 @@
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3457,25 +3444,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{422A6A28-4F84-CA4D-BC76-24F29CBA51D2}" name="Tabelle1" displayName="Tabelle1" ref="A1:D62" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
-  <autoFilter ref="A1:D62" xr:uid="{422A6A28-4F84-CA4D-BC76-24F29CBA51D2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{422A6A28-4F84-CA4D-BC76-24F29CBA51D2}" name="Tabelle1" displayName="Tabelle1" ref="A1:D59" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <autoFilter ref="A1:D59" xr:uid="{422A6A28-4F84-CA4D-BC76-24F29CBA51D2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E843E1F4-E64E-684F-A053-BC1EBA87FC3D}" name="Key" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{AD27EB56-E6EA-1B48-8FF5-F0DBDD95396F}" name="Description" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{3568C30F-FCC2-614D-B4C9-3748BE4A945B}" name="ScenarioKey" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{D0CB45EB-CC49-FE43-98FA-E06ED3CEE884}" name="Details" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{E843E1F4-E64E-684F-A053-BC1EBA87FC3D}" name="Key" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{AD27EB56-E6EA-1B48-8FF5-F0DBDD95396F}" name="Description" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{3568C30F-FCC2-614D-B4C9-3748BE4A945B}" name="ScenarioKey" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{D0CB45EB-CC49-FE43-98FA-E06ED3CEE884}" name="Details" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4839BD3-5D73-734A-B902-529B029081C5}" name="Tabelle2" displayName="Tabelle2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4839BD3-5D73-734A-B902-529B029081C5}" name="Tabelle2" displayName="Tabelle2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:C17" xr:uid="{C4839BD3-5D73-734A-B902-529B029081C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CD4C934D-C638-6641-9429-0635496C9CA8}" name="Convention" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{49EAB0E3-F001-BB4E-9093-217E47E4FDA4}" name="Description" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{2C6C41A4-B550-2949-BD2B-0FF7B652198B}" name="Reasoning" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{CD4C934D-C638-6641-9429-0635496C9CA8}" name="Convention" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{49EAB0E3-F001-BB4E-9093-217E47E4FDA4}" name="Description" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{2C6C41A4-B550-2949-BD2B-0FF7B652198B}" name="Reasoning" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3892,152 +3879,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -4203,7 +4190,7 @@
         <v>317</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>385</v>
@@ -4370,7 +4357,7 @@
         <v>317</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>91</v>
@@ -4537,7 +4524,7 @@
         <v>317</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>91</v>
@@ -4704,7 +4691,7 @@
         <v>318</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>390</v>
@@ -4871,7 +4858,7 @@
         <v>318</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>91</v>
@@ -5038,7 +5025,7 @@
         <v>318</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>91</v>
@@ -5205,7 +5192,7 @@
         <v>319</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>91</v>
@@ -5372,7 +5359,7 @@
         <v>319</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>91</v>
@@ -5539,7 +5526,7 @@
         <v>319</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>91</v>
@@ -5706,7 +5693,7 @@
         <v>319</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>91</v>
@@ -5873,7 +5860,7 @@
         <v>320</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>409</v>
@@ -6040,7 +6027,7 @@
         <v>320</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>91</v>
@@ -6207,7 +6194,7 @@
         <v>320</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>91</v>
@@ -6374,7 +6361,7 @@
         <v>321</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>91</v>
@@ -6541,7 +6528,7 @@
         <v>321</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>91</v>
@@ -6708,7 +6695,7 @@
         <v>321</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>91</v>
@@ -6875,7 +6862,7 @@
         <v>321</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>91</v>
@@ -7042,7 +7029,7 @@
         <v>321</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>91</v>
@@ -7209,7 +7196,7 @@
         <v>321</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>91</v>
@@ -7376,7 +7363,7 @@
         <v>321</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>91</v>
@@ -7543,7 +7530,7 @@
         <v>321</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>91</v>
@@ -7710,7 +7697,7 @@
         <v>321</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>91</v>
@@ -8066,77 +8053,77 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L6 AB6:XFD6 L5:XFD5 AJ11 AM11:XFD11 AJ18 AM18:XFD18 A4:A1048576 C19:XFD1048576 C12:XFD17 C18:AH18 C11:AH11 C7:XFD10 C5:K6 C4:XFD4">
-    <cfRule type="containsBlanks" dxfId="40" priority="16" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="38" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 C4:XFD4 AB6:XFD6 L5:XFD5 C5:K6 C7:XFD10 AJ11 C11:AH11 AM11:XFD11 AJ18 AM18:XFD18 C18:AH18 C12:XFD17 C19:XFD1048576">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH13:AO13">
-    <cfRule type="containsBlanks" dxfId="38" priority="14" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="36" priority="14" stopIfTrue="1">
       <formula>LEN(TRIM(AH13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH13:AO13">
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11">
-    <cfRule type="containsBlanks" dxfId="36" priority="10" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="34" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(AI11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11">
-    <cfRule type="containsBlanks" dxfId="34" priority="8" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="32" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(AK11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI18">
-    <cfRule type="containsBlanks" dxfId="32" priority="6" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="30" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(AI18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI18">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18">
-    <cfRule type="containsBlanks" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="28" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(AK18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20:AO20">
-    <cfRule type="containsBlanks" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="26" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(AH20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20:AO20">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="containsBlanks" dxfId="25" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="24" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8146,7 +8133,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3EFA68B4-6EFB-C744-B92F-EEF8F167115E}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A25</xm:sqref>
         </x14:dataValidation>
@@ -8195,152 +8182,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -8506,7 +8493,7 @@
         <v>317</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>385</v>
@@ -8673,7 +8660,7 @@
         <v>317</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>91</v>
@@ -8840,7 +8827,7 @@
         <v>317</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>91</v>
@@ -9007,7 +8994,7 @@
         <v>318</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>390</v>
@@ -9174,7 +9161,7 @@
         <v>318</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>91</v>
@@ -9341,7 +9328,7 @@
         <v>318</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>91</v>
@@ -9508,7 +9495,7 @@
         <v>319</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>91</v>
@@ -9675,7 +9662,7 @@
         <v>319</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>91</v>
@@ -9842,7 +9829,7 @@
         <v>319</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>91</v>
@@ -10009,7 +9996,7 @@
         <v>319</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>91</v>
@@ -10176,7 +10163,7 @@
         <v>320</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>409</v>
@@ -10343,7 +10330,7 @@
         <v>320</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>91</v>
@@ -10510,7 +10497,7 @@
         <v>320</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>91</v>
@@ -10677,7 +10664,7 @@
         <v>321</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>91</v>
@@ -10844,7 +10831,7 @@
         <v>321</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>91</v>
@@ -11011,7 +10998,7 @@
         <v>321</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>91</v>
@@ -11178,7 +11165,7 @@
         <v>321</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>91</v>
@@ -11345,7 +11332,7 @@
         <v>321</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>91</v>
@@ -11512,7 +11499,7 @@
         <v>321</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>91</v>
@@ -11679,7 +11666,7 @@
         <v>321</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>91</v>
@@ -11846,7 +11833,7 @@
         <v>321</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>91</v>
@@ -12013,7 +12000,7 @@
         <v>321</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>91</v>
@@ -12368,72 +12355,72 @@
     <mergeCell ref="B1:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="L6 AB6:XFD6 L5:XFD5 AJ11 AM11:XFD11 AJ18 AM18:XFD18 A4:A1048576 C19:XFD1048576 C12:XFD17 C18:AH18 C11:AH11 C7:XFD10 C5:K6 C4:XFD4">
-    <cfRule type="containsBlanks" dxfId="24" priority="14" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="23" priority="14" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 C4:XFD4 AB6:XFD6 L5:XFD5 C5:K6 C7:XFD10 AJ11 C11:AH11 AM11:XFD11 AJ18 AM18:XFD18 C18:AH18 C12:XFD17 C19:XFD1048576">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH13:AO13">
-    <cfRule type="containsBlanks" dxfId="22" priority="12" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="21" priority="12" stopIfTrue="1">
       <formula>LEN(TRIM(AH13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH13:AO13">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11">
-    <cfRule type="containsBlanks" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="19" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(AI11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11">
-    <cfRule type="containsBlanks" dxfId="18" priority="8" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(AK11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI18">
-    <cfRule type="containsBlanks" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="15" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(AI18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI18">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18">
-    <cfRule type="containsBlanks" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(AK18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20:AO20">
-    <cfRule type="containsBlanks" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(AH20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20:AO20">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12450,7 +12437,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16AD29BF-76C9-614D-8410-394C95D4547B}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A25</xm:sqref>
         </x14:dataValidation>
@@ -12499,152 +12486,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -16719,7 +16706,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AC9736F-A4A9-994E-A883-1A066A655958}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A26</xm:sqref>
         </x14:dataValidation>
@@ -16768,152 +16755,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -20988,7 +20975,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32AD80D9-49E2-D14E-9096-299E77F2D9C2}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A26</xm:sqref>
         </x14:dataValidation>
@@ -21037,152 +21024,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -25257,7 +25244,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5940BC62-74F2-5842-9495-1030DEF77587}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A26</xm:sqref>
         </x14:dataValidation>
@@ -26051,11 +26038,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A31B61-90E3-1849-BB99-1A270DFBF588}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26454,7 +26441,9 @@
       <c r="B31" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="28" t="s">
+        <v>418</v>
+      </c>
       <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26464,7 +26453,9 @@
       <c r="B32" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="28" t="s">
+        <v>418</v>
+      </c>
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26474,7 +26465,9 @@
       <c r="B33" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="28" t="s">
+        <v>418</v>
+      </c>
       <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26484,7 +26477,9 @@
       <c r="B34" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C34" s="26"/>
+      <c r="C34" s="28" t="s">
+        <v>418</v>
+      </c>
       <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26508,7 +26503,9 @@
       <c r="B36" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="28" t="s">
+        <v>420</v>
+      </c>
       <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26518,7 +26515,9 @@
       <c r="B37" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="28" t="s">
+        <v>420</v>
+      </c>
       <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26528,7 +26527,9 @@
       <c r="B38" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="28" t="s">
+        <v>420</v>
+      </c>
       <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26538,7 +26539,9 @@
       <c r="B39" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="28" t="s">
+        <v>420</v>
+      </c>
       <c r="D39" s="26"/>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -26556,35 +26559,51 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
+      <c r="A41" s="20" t="s">
+        <v>481</v>
+      </c>
       <c r="B41" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C41" s="26"/>
+      <c r="C41" s="26" t="s">
+        <v>421</v>
+      </c>
       <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="20" t="s">
+        <v>482</v>
+      </c>
       <c r="B42" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C42" s="26"/>
+      <c r="C42" s="26" t="s">
+        <v>421</v>
+      </c>
       <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
+      <c r="A43" s="20" t="s">
+        <v>483</v>
+      </c>
       <c r="B43" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="26" t="s">
+        <v>421</v>
+      </c>
       <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="20" t="s">
+        <v>484</v>
+      </c>
       <c r="B44" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C44" s="26"/>
+      <c r="C44" s="26" t="s">
+        <v>421</v>
+      </c>
       <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26608,7 +26627,9 @@
       <c r="B46" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="26" t="s">
+        <v>424</v>
+      </c>
       <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26618,7 +26639,9 @@
       <c r="B47" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C47" s="26"/>
+      <c r="C47" s="26" t="s">
+        <v>424</v>
+      </c>
       <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26628,7 +26651,9 @@
       <c r="B48" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="26" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" s="26"/>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -26638,7 +26663,9 @@
       <c r="B49" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C49" s="26"/>
+      <c r="C49" s="26" t="s">
+        <v>424</v>
+      </c>
       <c r="D49" s="26"/>
     </row>
     <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -26656,27 +26683,39 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
+      <c r="A51" s="20" t="s">
+        <v>485</v>
+      </c>
       <c r="B51" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C51" s="26"/>
+      <c r="C51" s="26" t="s">
+        <v>426</v>
+      </c>
       <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
+      <c r="A52" s="20" t="s">
+        <v>486</v>
+      </c>
       <c r="B52" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C52" s="26"/>
+      <c r="C52" s="26" t="s">
+        <v>426</v>
+      </c>
       <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
+      <c r="A53" s="20" t="s">
+        <v>487</v>
+      </c>
       <c r="B53" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C53" s="26"/>
+      <c r="C53" s="26" t="s">
+        <v>426</v>
+      </c>
       <c r="D53" s="26"/>
     </row>
     <row r="54" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -26694,70 +26733,64 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
+      <c r="A55" s="20" t="s">
+        <v>488</v>
+      </c>
       <c r="B55" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C55" s="26"/>
+      <c r="C55" s="26" t="s">
+        <v>428</v>
+      </c>
       <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
+      <c r="A56" s="20" t="s">
+        <v>489</v>
+      </c>
       <c r="B56" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="26"/>
+      <c r="C56" s="26" t="s">
+        <v>428</v>
+      </c>
       <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
+      <c r="A57" s="20" t="s">
+        <v>490</v>
+      </c>
       <c r="B57" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="26" t="s">
+        <v>428</v>
+      </c>
       <c r="D57" s="26"/>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
+      <c r="A58" s="20" t="s">
+        <v>491</v>
+      </c>
       <c r="B58" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C58" s="26"/>
+      <c r="C58" s="26" t="s">
+        <v>428</v>
+      </c>
       <c r="D58" s="26"/>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
+      <c r="A59" s="20" t="s">
+        <v>492</v>
+      </c>
       <c r="B59" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="C59" s="28"/>
+      <c r="C59" s="26" t="s">
+        <v>428</v>
+      </c>
       <c r="D59" s="28"/>
-    </row>
-    <row r="60" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="B60" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26772,7 +26805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774F00B6-A59F-D145-8FE6-374C061F9E9E}">
   <dimension ref="A1:BC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -26807,152 +26840,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="A1" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -27118,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>86</v>
@@ -27285,7 +27318,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>91</v>
@@ -27452,7 +27485,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>91</v>
@@ -27619,7 +27652,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>91</v>
@@ -27786,7 +27819,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>91</v>
@@ -27953,7 +27986,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>91</v>
@@ -28120,7 +28153,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>91</v>
@@ -28287,7 +28320,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>91</v>
@@ -28454,7 +28487,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>115</v>
@@ -28621,7 +28654,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>91</v>
@@ -28788,7 +28821,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>91</v>
@@ -28955,7 +28988,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>91</v>
@@ -29122,7 +29155,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>91</v>
@@ -29289,7 +29322,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>91</v>
@@ -29456,7 +29489,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>91</v>
@@ -29623,7 +29656,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>91</v>
@@ -29790,7 +29823,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>126</v>
@@ -29957,7 +29990,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>91</v>
@@ -30124,7 +30157,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>91</v>
@@ -30291,7 +30324,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>91</v>
@@ -30458,7 +30491,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>91</v>
@@ -30625,7 +30658,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>157</v>
@@ -30792,7 +30825,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>91</v>
@@ -30959,7 +30992,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>91</v>
@@ -31126,7 +31159,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>269</v>
@@ -31293,7 +31326,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>91</v>
@@ -31460,7 +31493,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>91</v>
@@ -31627,7 +31660,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>91</v>
@@ -31794,7 +31827,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>91</v>
@@ -31961,7 +31994,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>91</v>
@@ -32128,7 +32161,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>91</v>
@@ -32295,7 +32328,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>91</v>
@@ -32462,7 +32495,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>91</v>
@@ -32629,7 +32662,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>91</v>
@@ -32796,7 +32829,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>91</v>
@@ -32963,7 +32996,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>91</v>
@@ -33130,7 +33163,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>91</v>
@@ -33297,7 +33330,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>91</v>
@@ -33464,7 +33497,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>91</v>
@@ -33631,7 +33664,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>91</v>
@@ -33798,7 +33831,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>91</v>
@@ -33965,7 +33998,7 @@
         <v>14</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>91</v>
@@ -34132,7 +34165,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>91</v>
@@ -34299,7 +34332,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>91</v>
@@ -34466,7 +34499,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>91</v>
@@ -34633,7 +34666,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>91</v>
@@ -34800,7 +34833,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>174</v>
@@ -34967,7 +35000,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>91</v>
@@ -35134,7 +35167,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>91</v>
@@ -35301,7 +35334,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>91</v>
@@ -35468,7 +35501,7 @@
         <v>16</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>91</v>
@@ -35635,7 +35668,7 @@
         <v>16</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>91</v>
@@ -35802,7 +35835,7 @@
         <v>16</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>91</v>
@@ -35969,7 +36002,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>91</v>
@@ -36136,7 +36169,7 @@
         <v>17</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>91</v>
@@ -36303,7 +36336,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>91</v>
@@ -36470,7 +36503,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>91</v>
@@ -36637,7 +36670,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>91</v>
@@ -36804,7 +36837,7 @@
         <v>17</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>91</v>
@@ -36971,7 +37004,7 @@
         <v>17</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>91</v>
@@ -37138,7 +37171,7 @@
         <v>17</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>91</v>
@@ -37305,7 +37338,7 @@
         <v>17</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>91</v>
@@ -37472,7 +37505,7 @@
         <v>17</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>91</v>
@@ -37639,7 +37672,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>91</v>
@@ -37806,7 +37839,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>91</v>
@@ -37973,7 +38006,7 @@
         <v>19</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>249</v>
@@ -38140,7 +38173,7 @@
         <v>19</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>91</v>
@@ -38307,7 +38340,7 @@
         <v>19</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>91</v>
@@ -38474,7 +38507,7 @@
         <v>21</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>91</v>
@@ -38641,7 +38674,7 @@
         <v>21</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>91</v>
@@ -38808,7 +38841,7 @@
         <v>21</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>91</v>
@@ -38975,7 +39008,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>91</v>
@@ -39142,7 +39175,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>91</v>
@@ -39309,7 +39342,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>91</v>
@@ -39476,7 +39509,7 @@
         <v>23</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>91</v>
@@ -39643,7 +39676,7 @@
         <v>23</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>91</v>
@@ -39810,7 +39843,7 @@
         <v>25</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>91</v>
@@ -39977,7 +40010,7 @@
         <v>25</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>91</v>
@@ -40144,7 +40177,7 @@
         <v>25</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>249</v>
@@ -40311,7 +40344,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>86</v>
@@ -40493,22 +40526,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="W53:AA55 AP53:XFD55 AB53:AO57 W56:XFD56 AU60:BC61 BD58:XFD64 AY62:BC63 AU62:AX64 AU65:XFD65 BD66:XFD71 AY65:BC67 L72:XFD81 L66:AX67 L60:AT65 L58:BC59 L57:XFD57 W49:XFD50 L48:XFD48 L5:L6 L7:XFD11 L49:Q49 L52:Q56 L68:BC68 AB6:XFD6 M4:XFD5 W52:XFD52 L51:XFD51 L70:BC71 A4:L4 C12:XFD47 C69:BC69 C50:Q50 C70:K81 C51:K68 C48:K49 C5:K11 A5:B82 A82:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="66" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="63" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W53:AA55 AP53:XFD55 AB53:AO57 W56:XFD56 AU60:BC61 BD58:XFD64 AY62:BC63 AU62:AX64 AU65:XFD65 BD66:XFD71 AY65:BC67 L72:XFD81 L66:AX67 L60:AT65 L58:BC59 L57:XFD57 W49:XFD50 L48:XFD48 L5:L6 L7:XFD11 L49:Q49 L52:Q56 C48:K49 L68:BC68 C5:K11 C51:K68 C70:K81 AB6:XFD6 M4:XFD5 W52:XFD52 L51:XFD51 L70:BC71 C4:L4 C12:XFD47 C50:Q50 C69:BC69 C82:XFD1048576">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY64:BC64">
-    <cfRule type="containsBlanks" dxfId="64" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="61" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(AY64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY64:BC64">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40518,7 +40551,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D1575FA-AD3B-B848-9B4C-D0F3A4B189BC}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A83</xm:sqref>
         </x14:dataValidation>
@@ -40567,152 +40600,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="8" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
@@ -40878,7 +40911,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>86</v>
@@ -41045,7 +41078,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>91</v>
@@ -41212,7 +41245,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>91</v>
@@ -41379,7 +41412,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>91</v>
@@ -41546,7 +41579,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>91</v>
@@ -41713,7 +41746,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>91</v>
@@ -41880,7 +41913,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>91</v>
@@ -42047,7 +42080,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>91</v>
@@ -42214,7 +42247,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>115</v>
@@ -42381,7 +42414,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>91</v>
@@ -42548,7 +42581,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>91</v>
@@ -42715,7 +42748,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>91</v>
@@ -42882,7 +42915,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>91</v>
@@ -43049,7 +43082,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>91</v>
@@ -43216,7 +43249,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>91</v>
@@ -43383,7 +43416,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>91</v>
@@ -43550,7 +43583,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>126</v>
@@ -43717,7 +43750,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>91</v>
@@ -43884,7 +43917,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>91</v>
@@ -44051,7 +44084,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>91</v>
@@ -44218,7 +44251,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>91</v>
@@ -44385,7 +44418,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>157</v>
@@ -44552,7 +44585,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>91</v>
@@ -44719,7 +44752,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>91</v>
@@ -44886,7 +44919,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>269</v>
@@ -45053,7 +45086,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>91</v>
@@ -45220,7 +45253,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>91</v>
@@ -45387,7 +45420,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>91</v>
@@ -45554,7 +45587,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>91</v>
@@ -45721,7 +45754,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>91</v>
@@ -45888,7 +45921,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>91</v>
@@ -46055,7 +46088,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>91</v>
@@ -46222,7 +46255,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>91</v>
@@ -46389,7 +46422,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>91</v>
@@ -46556,7 +46589,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>91</v>
@@ -46723,7 +46756,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>91</v>
@@ -46890,7 +46923,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>91</v>
@@ -47057,7 +47090,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>91</v>
@@ -47224,7 +47257,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>91</v>
@@ -47391,7 +47424,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>91</v>
@@ -47558,7 +47591,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>91</v>
@@ -47725,7 +47758,7 @@
         <v>15</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>91</v>
@@ -47892,7 +47925,7 @@
         <v>15</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>91</v>
@@ -48059,7 +48092,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>174</v>
@@ -48226,7 +48259,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>91</v>
@@ -48393,7 +48426,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>91</v>
@@ -48560,7 +48593,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>91</v>
@@ -48727,7 +48760,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>91</v>
@@ -48894,7 +48927,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>91</v>
@@ -49061,7 +49094,7 @@
         <v>17</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>91</v>
@@ -49228,7 +49261,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>91</v>
@@ -49395,7 +49428,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>91</v>
@@ -49562,7 +49595,7 @@
         <v>17</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>91</v>
@@ -49729,7 +49762,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>91</v>
@@ -49896,7 +49929,7 @@
         <v>17</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>91</v>
@@ -50063,7 +50096,7 @@
         <v>18</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>91</v>
@@ -50230,7 +50263,7 @@
         <v>18</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>91</v>
@@ -50397,7 +50430,7 @@
         <v>19</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>249</v>
@@ -50564,7 +50597,7 @@
         <v>19</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>91</v>
@@ -50731,7 +50764,7 @@
         <v>19</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>91</v>
@@ -50898,7 +50931,7 @@
         <v>21</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>91</v>
@@ -51065,7 +51098,7 @@
         <v>21</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>91</v>
@@ -51232,7 +51265,7 @@
         <v>21</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>91</v>
@@ -51399,7 +51432,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>91</v>
@@ -51566,7 +51599,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>91</v>
@@ -51733,7 +51766,7 @@
         <v>21</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>91</v>
@@ -51900,7 +51933,7 @@
         <v>23</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>91</v>
@@ -52067,7 +52100,7 @@
         <v>23</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>91</v>
@@ -52234,7 +52267,7 @@
         <v>25</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>91</v>
@@ -52401,7 +52434,7 @@
         <v>25</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>91</v>
@@ -52613,17 +52646,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="W50:AA50 L52:BC53 L51:AA51 L6 L45:XFD45 AU54:BC56 AU57:XFD57 AB6:XFD6 L5:XFD5 L46:Q46 L48:Q50 BD52:XFD56 L54:AT57 W46:XFD49 AB50:XFD51 L58:XFD60 A4:A1048576 C61:XFD1048576 C48:K60 C7:XFD44 C47:Q47 C45:K46 C5:K6 C4:XFD4">
-    <cfRule type="containsBlanks" dxfId="62" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="59" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:AA50 L52:BC53 L51:AA51 L6 L45:XFD45 AU54:BC56 AU57:XFD57 C4:XFD4 AB6:XFD6 L5:XFD5 C5:K6 L46:Q46 C45:K46 C47:Q47 L48:Q50 BD52:XFD56 L54:AT57 C7:XFD44 W46:XFD49 AB50:XFD51 L58:XFD60 C48:K60 C61:XFD1048576">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="containsBlanks" dxfId="60" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="57" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52633,7 +52666,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A9B49B1-9B8F-DC4A-9EC9-C63FF1E4F98D}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A73</xm:sqref>
         </x14:dataValidation>
@@ -52682,152 +52715,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -52993,7 +53026,7 @@
         <v>311</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>327</v>
@@ -53160,7 +53193,7 @@
         <v>311</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>91</v>
@@ -53327,7 +53360,7 @@
         <v>311</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>91</v>
@@ -53494,7 +53527,7 @@
         <v>312</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>331</v>
@@ -53661,7 +53694,7 @@
         <v>312</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>91</v>
@@ -53828,7 +53861,7 @@
         <v>312</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>91</v>
@@ -53995,7 +54028,7 @@
         <v>313</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>336</v>
@@ -54162,7 +54195,7 @@
         <v>313</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>91</v>
@@ -54329,7 +54362,7 @@
         <v>313</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>91</v>
@@ -54496,7 +54529,7 @@
         <v>313</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>91</v>
@@ -54663,7 +54696,7 @@
         <v>313</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>91</v>
@@ -54830,7 +54863,7 @@
         <v>313</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>91</v>
@@ -54997,7 +55030,7 @@
         <v>313</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>91</v>
@@ -55164,7 +55197,7 @@
         <v>313</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>91</v>
@@ -55331,7 +55364,7 @@
         <v>313</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>91</v>
@@ -55498,7 +55531,7 @@
         <v>313</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>91</v>
@@ -55665,7 +55698,7 @@
         <v>313</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>91</v>
@@ -55832,7 +55865,7 @@
         <v>313</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>91</v>
@@ -55999,7 +56032,7 @@
         <v>313</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>91</v>
@@ -56166,7 +56199,7 @@
         <v>313</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>91</v>
@@ -56333,7 +56366,7 @@
         <v>313</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>91</v>
@@ -56500,7 +56533,7 @@
         <v>313</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>91</v>
@@ -56667,7 +56700,7 @@
         <v>313</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>91</v>
@@ -57020,17 +57053,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L6 AB6:XFD6 L5:XFD5 A4:A1048576 C7:XFD1048576 C5:K6 C4:XFD4">
-    <cfRule type="containsBlanks" dxfId="59" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="56" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 C4:XFD4 AB6:XFD6 L5:XFD5 C5:K6 C7:XFD1048576">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="containsBlanks" dxfId="57" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="54" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57040,7 +57073,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{941F39F9-809C-DC41-A496-89335E51E777}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A26</xm:sqref>
         </x14:dataValidation>
@@ -57089,152 +57122,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -57400,7 +57433,7 @@
         <v>311</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>327</v>
@@ -57567,7 +57600,7 @@
         <v>311</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>91</v>
@@ -57734,7 +57767,7 @@
         <v>311</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>91</v>
@@ -57901,7 +57934,7 @@
         <v>312</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>331</v>
@@ -58068,7 +58101,7 @@
         <v>312</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>91</v>
@@ -58235,7 +58268,7 @@
         <v>312</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>91</v>
@@ -58402,7 +58435,7 @@
         <v>313</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>336</v>
@@ -58569,7 +58602,7 @@
         <v>313</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>91</v>
@@ -58736,7 +58769,7 @@
         <v>313</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>91</v>
@@ -58903,7 +58936,7 @@
         <v>313</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>91</v>
@@ -59070,7 +59103,7 @@
         <v>313</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>91</v>
@@ -59237,7 +59270,7 @@
         <v>313</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>91</v>
@@ -59404,7 +59437,7 @@
         <v>313</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>91</v>
@@ -59571,7 +59604,7 @@
         <v>313</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>91</v>
@@ -59738,7 +59771,7 @@
         <v>313</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>91</v>
@@ -59905,7 +59938,7 @@
         <v>313</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>91</v>
@@ -60072,7 +60105,7 @@
         <v>313</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>91</v>
@@ -60239,7 +60272,7 @@
         <v>313</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>91</v>
@@ -60406,7 +60439,7 @@
         <v>313</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>91</v>
@@ -60573,7 +60606,7 @@
         <v>313</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>91</v>
@@ -60740,7 +60773,7 @@
         <v>313</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>91</v>
@@ -60907,7 +60940,7 @@
         <v>313</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>91</v>
@@ -61263,27 +61296,27 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AP14:XFD15 AB6:XFD6 M5:XFD5 A4:A1048576 C7:XFD13 C4:XFD4 C5:L6 C16:XFD1048576 C14:AH15">
-    <cfRule type="containsBlanks" dxfId="56" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="53" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AH15 AP14:XFD15 C16:XFD1048576 C5:L6 C4:XFD4 AB6:XFD6 M5:XFD5 C7:XFD13">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI14:AO15">
-    <cfRule type="containsBlanks" dxfId="54" priority="2" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="51" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(AI14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI14:AO15">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="containsBlanks" dxfId="52" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="49" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61293,7 +61326,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{817DDEA2-7595-3E49-885C-157E4553C618}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A25</xm:sqref>
         </x14:dataValidation>
@@ -61342,152 +61375,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -61653,7 +61686,7 @@
         <v>314</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>366</v>
@@ -61820,7 +61853,7 @@
         <v>314</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>91</v>
@@ -61987,7 +62020,7 @@
         <v>314</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>91</v>
@@ -62154,7 +62187,7 @@
         <v>315</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>370</v>
@@ -62321,7 +62354,7 @@
         <v>315</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>91</v>
@@ -62488,7 +62521,7 @@
         <v>315</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>91</v>
@@ -62655,7 +62688,7 @@
         <v>316</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>91</v>
@@ -62822,7 +62855,7 @@
         <v>316</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>91</v>
@@ -62989,7 +63022,7 @@
         <v>316</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>91</v>
@@ -63156,7 +63189,7 @@
         <v>316</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>91</v>
@@ -63323,7 +63356,7 @@
         <v>316</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>91</v>
@@ -63490,7 +63523,7 @@
         <v>316</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>91</v>
@@ -63657,7 +63690,7 @@
         <v>316</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>91</v>
@@ -64040,27 +64073,27 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L6 AB6:XFD6 L5:XFD5 A4:A1048576 C7:XFD1048576 C5:K6 C4:XFD4">
-    <cfRule type="containsBlanks" dxfId="51" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="48" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 C4:XFD4 AB6:XFD6 L5:XFD5 C5:K6 C7:XFD1048576">
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AO12">
-    <cfRule type="containsBlanks" dxfId="49" priority="2" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="46" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(AH12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AO12">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="containsBlanks" dxfId="46" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="44" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64070,7 +64103,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77F0C5C8-AC61-554F-8257-0EA5AFDBD9CA}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A16</xm:sqref>
         </x14:dataValidation>
@@ -64119,152 +64152,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="60" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="54" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="54" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="56" t="s">
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
     </row>
     <row r="3" spans="1:55" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
@@ -64430,7 +64463,7 @@
         <v>314</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>366</v>
@@ -64597,7 +64630,7 @@
         <v>314</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>91</v>
@@ -64764,7 +64797,7 @@
         <v>314</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>91</v>
@@ -64931,7 +64964,7 @@
         <v>315</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>370</v>
@@ -65098,7 +65131,7 @@
         <v>315</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>91</v>
@@ -65265,7 +65298,7 @@
         <v>315</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>91</v>
@@ -65432,7 +65465,7 @@
         <v>316</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>91</v>
@@ -65599,7 +65632,7 @@
         <v>316</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>91</v>
@@ -65766,7 +65799,7 @@
         <v>316</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>91</v>
@@ -65933,7 +65966,7 @@
         <v>316</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>91</v>
@@ -66100,7 +66133,7 @@
         <v>316</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>91</v>
@@ -66267,7 +66300,7 @@
         <v>316</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>91</v>
@@ -66434,7 +66467,7 @@
         <v>316</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>91</v>
@@ -66816,27 +66849,27 @@
     <mergeCell ref="B1:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="L6 AB6:XFD6 L5:XFD5 A4:A1048576 C7:XFD1048576 C5:K6 C4:XFD4">
-    <cfRule type="containsBlanks" dxfId="45" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="43" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 C4:XFD4 AB6:XFD6 L5:XFD5 C5:K6 C7:XFD1048576">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AO12">
-    <cfRule type="containsBlanks" dxfId="43" priority="2" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="41" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(AH12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AO12">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="notEqual">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="containsBlanks" dxfId="41" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="39" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66847,7 +66880,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FD8B211-E2D6-5C4F-89FD-781C20AE5F81}">
           <x14:formula1>
-            <xm:f>businessevents!$A$2:$A$117</xm:f>
+            <xm:f>businessevents!$A$2:$A$114</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A16</xm:sqref>
         </x14:dataValidation>
@@ -66858,6 +66891,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010077FCAD843BF44A4BABBF8E8FD9F5DAA3" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c6015d074abc3fd8e64f9ef5e21f7cdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6e65e6-3f48-4872-a1e7-e48555659f5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02d2ef7fa4d856fff055a3790f8a6335" ns2:_="">
     <xsd:import namespace="fe6e65e6-3f48-4872-a1e7-e48555659f5f"/>
@@ -67015,15 +67057,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -67031,6 +67064,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44EA3924-C60D-4AB3-8333-F249729C0DDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{548EC3FD-DB51-454E-B2A6-D1DD66121FF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67044,14 +67085,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44EA3924-C60D-4AB3-8333-F249729C0DDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
